--- a/finalData/Conveniencefinal.xlsx
+++ b/finalData/Conveniencefinal.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21908"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_2F4A37168298B6CA6CF2E1FDDF93735797FB0C4A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4286A348-A35A-4AB9-BDE1-12BF3D4899F3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -56,9 +65,27 @@
     <t>2019-07-14 03:42:36</t>
   </si>
   <si>
+    <t>@tylerhannan I got an X100F for portability. Wonderful glass in a p/s form factor. Full-time 28mm. Decent dof. Doesn't answer your question at all.</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>Convenience</t>
+  </si>
+  <si>
+    <t>['s form factor', 'Wonderful glass', 'tylerhannan', 'X100F', 'portability', 'Decent dof', 'question']</t>
+  </si>
+  <si>
     <t>2019-07-13 00:10:29</t>
   </si>
   <si>
+    <t>RT @reduzio: It's easy to see @VulkanAPI as a glass half full or half empty. If you look at it from the negative side, it's a very complex</t>
+  </si>
+  <si>
+    <t>['glass half', 'VulkanAPI', 'RT', 'reduzio']</t>
+  </si>
+  <si>
     <t>2019-07-12 16:33:30</t>
   </si>
   <si>
@@ -92,12 +119,30 @@
     <t>2019-07-11 14:00:30</t>
   </si>
   <si>
+    <t>It\'s easy to see @VulkanAPI as a glass half full or half empty. If you look at it from the negative side, it\'s a very complex API due to the very large amount of hardware supported, and many hardware "limits" can range from 4/16  to 1&amp;lt;&amp;lt;32 make it very challenging for portability.</t>
+  </si>
+  <si>
+    <t>['hardware', 'lt', 'glass half', 's easy', 'VulkanAPI', 'complex API', 'portability', 'limits']</t>
+  </si>
+  <si>
     <t>2019-07-10 13:34:47</t>
   </si>
   <si>
+    <t>I'm fine with the idea of the Switch Lite, cheaper and aimed toward portability. But I'd love to see something like a Switch Plus that has a bigger battery, bigger screen made of glass, better kickstand, bluetooth connectivity and a bit more power.</t>
+  </si>
+  <si>
+    <t>['bigger screen', 'bigger battery', 'Switch Lite', 'glass', 'better kickstand', 'bluetooth connectivity', 'idea', 'portability', 'power']</t>
+  </si>
+  <si>
     <t>2019-07-08 21:46:25</t>
   </si>
   <si>
+    <t>RT @Cloudious9Crew: Clean, consistent and flavorful draws reminiscent of traditional glass, with the convenience and portability expected o</t>
+  </si>
+  <si>
+    <t>['flavorful draws reminiscent of traditional glass', 'convenience', 'Cloudious9Crew', 'portability']</t>
+  </si>
+  <si>
     <t>2019-07-08 21:05:24</t>
   </si>
   <si>
@@ -107,55 +152,19 @@
     <t>2019-07-08 13:41:17</t>
   </si>
   <si>
+    <t>Clean, consistent and flavorful draws reminiscent of traditional glass, with the convenience and portability expected of a vape - Adrienne Airhart PROHBTD\n\nhttps://t.co/cDR0BtwDoP\n\nCheck out the Hydrology9 at https://t.co/41ygv5i1pU\n@PROHBTD @craydrienne https://t.co/TG74fKgQNb</t>
+  </si>
+  <si>
+    <t>['flavorful draws reminiscent of traditional glass', 'Adrienne Airhart PROHBTD', 'portability', 'convenience', 'Hydrology9', 'cDR0BtwDoP', 'craydrienne']</t>
+  </si>
+  <si>
     <t>2019-07-08 01:41:02</t>
   </si>
   <si>
-    <t>@tylerhannan I got an X100F for portability. Wonderful glass in a p/s form factor. Full-time 28mm. Decent dof. Doesn't answer your question at all.</t>
-  </si>
-  <si>
-    <t>RT @reduzio: It's easy to see @VulkanAPI as a glass half full or half empty. If you look at it from the negative side, it's a very complex</t>
-  </si>
-  <si>
-    <t>It\'s easy to see @VulkanAPI as a glass half full or half empty. If you look at it from the negative side, it\'s a very complex API due to the very large amount of hardware supported, and many hardware "limits" can range from 4/16  to 1&amp;lt;&amp;lt;32 make it very challenging for portability.</t>
-  </si>
-  <si>
-    <t>I'm fine with the idea of the Switch Lite, cheaper and aimed toward portability. But I'd love to see something like a Switch Plus that has a bigger battery, bigger screen made of glass, better kickstand, bluetooth connectivity and a bit more power.</t>
-  </si>
-  <si>
-    <t>RT @Cloudious9Crew: Clean, consistent and flavorful draws reminiscent of traditional glass, with the convenience and portability expected o</t>
-  </si>
-  <si>
-    <t>Clean, consistent and flavorful draws reminiscent of traditional glass, with the convenience and portability expected of a vape - Adrienne Airhart PROHBTD\n\nhttps://t.co/cDR0BtwDoP\n\nCheck out the Hydrology9 at https://t.co/41ygv5i1pU\n@PROHBTD @craydrienne https://t.co/TG74fKgQNb</t>
-  </si>
-  <si>
     <t>bottom line is, tapes are making a comeback. The durable plastic case, the price point, the sound quality, the portability. keep your cassettes. When tapes get big again like vinyl theyll start remaking higher quality cassette decks. For now though we have to wait</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
     <t>plastic</t>
-  </si>
-  <si>
-    <t>Convenience</t>
-  </si>
-  <si>
-    <t>['s form factor', 'Wonderful glass', 'tylerhannan', 'X100F', 'portability', 'Decent dof', 'question']</t>
-  </si>
-  <si>
-    <t>['glass half', 'VulkanAPI', 'RT', 'reduzio']</t>
-  </si>
-  <si>
-    <t>['hardware', 'lt', 'glass half', 's easy', 'VulkanAPI', 'complex API', 'portability', 'limits']</t>
-  </si>
-  <si>
-    <t>['bigger screen', 'bigger battery', 'Switch Lite', 'glass', 'better kickstand', 'bluetooth connectivity', 'idea', 'portability', 'power']</t>
-  </si>
-  <si>
-    <t>['flavorful draws reminiscent of traditional glass', 'convenience', 'Cloudious9Crew', 'portability']</t>
-  </si>
-  <si>
-    <t>['flavorful draws reminiscent of traditional glass', 'Adrienne Airhart PROHBTD', 'portability', 'convenience', 'Hydrology9', 'cDR0BtwDoP', 'craydrienne']</t>
   </si>
   <si>
     <t>['tapes', 'sound quality', 'higher quality cassette decks', 'vinyl theyll', 'price point', 'durable plastic case', 'portability', 'line', 'comeback', 'cassettes']</t>
@@ -188,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -252,6 +261,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -298,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +347,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +399,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,12 +592,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -589,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -598,30 +657,30 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9256883263587952</v>
+        <v>0.92568832635879517</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -630,30 +689,30 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -662,30 +721,30 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -694,30 +753,30 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -726,30 +785,30 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -758,30 +817,30 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -790,30 +849,30 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -822,30 +881,30 @@
         <v>13</v>
       </c>
       <c r="E9">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -854,30 +913,30 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -886,30 +945,30 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -918,30 +977,30 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -950,30 +1009,30 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>0.8372188210487366</v>
+        <v>0.83721882104873657</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -982,27 +1041,27 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>0.7549606561660767</v>
+        <v>0.75496065616607666</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -1017,27 +1076,27 @@
         <v>0.9580114483833313</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1046,30 +1105,30 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>0.9719901084899902</v>
+        <v>0.97199010848999023</v>
       </c>
       <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>45</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1078,30 +1137,30 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>0.9719901084899902</v>
+        <v>0.97199010848999023</v>
       </c>
       <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
         <v>38</v>
       </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1110,30 +1169,30 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>0.9719901084899902</v>
+        <v>0.97199010848999023</v>
       </c>
       <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
         <v>38</v>
       </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1142,30 +1201,30 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>0.9666659832000732</v>
+        <v>0.96666598320007324</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1174,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7194507122039795</v>
+        <v>0.71945071220397949</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -1189,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1255,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1277,4 +1336,222 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD6DE5DB5A34A749BF3DACFD3E2D6C60" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="745738122f243e8777abe46a53fd78c7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0f83324-e24c-4415-8ea4-7b3a4c207790" xmlns:ns3="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dbccdd7214daa34df71e55f0ce0a251" ns2:_="" ns3:_="">
+    <xsd:import namespace="d0f83324-e24c-4415-8ea4-7b3a4c207790"/>
+    <xsd:import namespace="9efc881c-c5bb-47d9-bf3a-c9d7f253646b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d0f83324-e24c-4415-8ea4-7b3a4c207790" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71427AF8-8964-4CF6-8DD9-C061C49980A2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68F3D02F-D3B7-435C-B889-3F46EFAB0CB8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73AB5DB1-FDF9-4D82-B6CB-91E434F0764E}"/>
 </file>